--- a/Analysis/TF-UI-Commonalities-Analysis.xlsx
+++ b/Analysis/TF-UI-Commonalities-Analysis.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ntsrv\common\Strategic Solutions\Designs &amp; Specs\TF New Arch\Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80ADA7E-1F81-4612-9BAC-45DBC42C5799}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Data Queries" sheetId="1" r:id="rId1"/>
@@ -31,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vinit Naik</author>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,12 +59,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vinit Naik</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1120,6 +1114,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,20 +1135,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1173,12 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1339,14 +1333,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="B2:G11" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B2:G11" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Component Type" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Screen Names" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Can be Reusable List Components" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Autocomplete" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Implementation"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Benefit"/>
+    <tableColumn id="1" name="Component Type" dataDxfId="3"/>
+    <tableColumn id="2" name="Screen Names" dataDxfId="2"/>
+    <tableColumn id="3" name="Can be Reusable List Components" dataDxfId="1"/>
+    <tableColumn id="4" name="Autocomplete" dataDxfId="0"/>
+    <tableColumn id="5" name="Implementation"/>
+    <tableColumn id="6" name="Benefit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1395,7 +1389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1428,26 +1422,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1480,23 +1457,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1672,22 +1632,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1722,7 +1682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>5</v>
       </c>
@@ -1743,7 +1703,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="51"/>
       <c r="B4" s="17" t="s">
         <v>4</v>
@@ -1762,7 +1722,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="17" t="s">
         <v>7</v>
@@ -1783,7 +1743,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="17" t="s">
         <v>9</v>
@@ -1804,7 +1764,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="17" t="s">
         <v>26</v>
@@ -1825,7 +1785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="17" t="s">
         <v>12</v>
@@ -1846,7 +1806,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="17" t="s">
         <v>25</v>
@@ -1867,7 +1827,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="51"/>
       <c r="B10" s="19" t="s">
         <v>20</v>
@@ -1888,7 +1848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="19" t="s">
         <v>98</v>
@@ -1923,43 +1883,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>41</v>
       </c>
@@ -1994,11 +1954,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
+    <row r="3" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -2016,7 +1976,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="62"/>
       <c r="C4" s="10" t="s">
@@ -2040,7 +2000,7 @@
       </c>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -2062,7 +2022,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="56"/>
       <c r="C6" s="13" t="s">
@@ -2086,11 +2046,11 @@
       </c>
       <c r="J6" s="58"/>
     </row>
-    <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59">
         <v>3</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="63" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -2108,7 +2068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
       <c r="B8" s="62"/>
       <c r="C8" s="10" t="s">
@@ -2132,7 +2092,7 @@
       </c>
       <c r="J8" s="58"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="53">
         <v>4</v>
       </c>
@@ -2154,7 +2114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="56"/>
       <c r="C10" s="13" t="s">
@@ -2178,11 +2138,11 @@
       </c>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="59">
         <v>5</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="63" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -2200,7 +2160,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="60"/>
       <c r="B12" s="62"/>
       <c r="C12" s="10" t="s">
@@ -2224,7 +2184,7 @@
       </c>
       <c r="J12" s="58"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="53">
         <v>6</v>
       </c>
@@ -2246,7 +2206,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
       <c r="B14" s="56"/>
       <c r="C14" s="13" t="s">
@@ -2271,11 +2231,11 @@
       <c r="J14" s="58"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="59">
         <v>7</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="63" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -2293,7 +2253,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="60"/>
       <c r="B16" s="62"/>
       <c r="C16" s="10" t="s">
@@ -2317,7 +2277,7 @@
       </c>
       <c r="J16" s="58"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="53">
         <v>8</v>
       </c>
@@ -2335,11 +2295,11 @@
       <c r="G17" s="30"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="64" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
       <c r="B18" s="56"/>
       <c r="C18" s="13" t="s">
@@ -2361,13 +2321,13 @@
       <c r="I18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="59">
         <v>9</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="63" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2385,7 +2345,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
       <c r="B20" s="62"/>
       <c r="C20" s="10" t="s">
@@ -2407,7 +2367,7 @@
       </c>
       <c r="J20" s="58"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="53">
         <v>10</v>
       </c>
@@ -2429,7 +2389,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="54"/>
       <c r="B22" s="56"/>
       <c r="C22" s="13" t="s">
@@ -2453,7 +2413,7 @@
       </c>
       <c r="J22" s="58"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="59">
         <v>11</v>
       </c>
@@ -2475,7 +2435,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="62"/>
       <c r="C24" s="10" t="s">
@@ -2499,7 +2459,7 @@
       </c>
       <c r="J24" s="58"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="53">
         <v>12</v>
       </c>
@@ -2523,7 +2483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="54"/>
       <c r="B26" s="56"/>
       <c r="C26" s="13" t="s">
@@ -2547,7 +2507,7 @@
       </c>
       <c r="J26" s="58"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="59">
         <v>13</v>
       </c>
@@ -2571,7 +2531,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="60"/>
       <c r="B28" s="62"/>
       <c r="C28" s="10" t="s">
@@ -2595,7 +2555,7 @@
       </c>
       <c r="J28" s="58"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="53">
         <v>14</v>
       </c>
@@ -2619,7 +2579,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="56"/>
       <c r="C30" s="13" t="s">
@@ -2643,7 +2603,7 @@
       </c>
       <c r="J30" s="58"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="59">
         <v>15</v>
       </c>
@@ -2667,7 +2627,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="60"/>
       <c r="B32" s="62"/>
       <c r="C32" s="10" t="s">
@@ -2692,14 +2652,32 @@
       <c r="J32" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="D1:D32"/>
   <mergeCells count="46">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J6"/>
@@ -2716,30 +2694,12 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="J31:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2748,38 +2708,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -2814,11 +2774,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -2831,16 +2791,16 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="10" t="s">
         <v>45</v>
       </c>
@@ -2851,12 +2811,12 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="77"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="75"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="75"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="10" t="s">
         <v>68</v>
       </c>
@@ -2875,10 +2835,10 @@
       <c r="H5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="78"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="53">
         <v>2</v>
       </c>
@@ -2895,16 +2855,16 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="13" t="s">
         <v>45</v>
       </c>
@@ -2915,10 +2875,10 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="77"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="44"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="56"/>
       <c r="C8" s="13" t="s">
@@ -2939,14 +2899,14 @@
       <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="78"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="59">
         <v>3</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="63" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -2959,16 +2919,16 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J9" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="10" t="s">
         <v>45</v>
       </c>
@@ -2979,12 +2939,12 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="77"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="44"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="75"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="10" t="s">
         <v>68</v>
       </c>
@@ -3003,10 +2963,10 @@
       <c r="H11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -3023,16 +2983,16 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
@@ -3043,10 +3003,10 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="77"/>
+      <c r="I13" s="79"/>
       <c r="J13" s="44"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
       <c r="B14" s="56"/>
       <c r="C14" s="13" t="s">
@@ -3067,14 +3027,14 @@
       <c r="H14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="78"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="45"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="59">
         <v>5</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="63" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3087,16 +3047,16 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="74"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="74"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
@@ -3107,12 +3067,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="77"/>
+      <c r="I16" s="79"/>
       <c r="J16" s="44"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="75"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="10" t="s">
         <v>68</v>
       </c>
@@ -3131,10 +3091,10 @@
       <c r="H17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="78"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="45"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="53">
         <v>6</v>
       </c>
@@ -3151,16 +3111,16 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="13" t="s">
         <v>45</v>
       </c>
@@ -3171,10 +3131,10 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="44"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="56"/>
       <c r="C20" s="13" t="s">
@@ -3195,14 +3155,14 @@
       <c r="H20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="78"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="45"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="59">
         <v>7</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -3215,16 +3175,16 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J21" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="74"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="10" t="s">
         <v>45</v>
       </c>
@@ -3235,12 +3195,12 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="77"/>
+      <c r="I22" s="79"/>
       <c r="J22" s="44"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="75"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="75"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="10" t="s">
         <v>68</v>
       </c>
@@ -3259,10 +3219,10 @@
       <c r="H23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="78"/>
+      <c r="I23" s="80"/>
       <c r="J23" s="45"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="53">
         <v>8</v>
       </c>
@@ -3279,16 +3239,16 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="13" t="s">
         <v>45</v>
       </c>
@@ -3299,10 +3259,10 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="44"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="54"/>
       <c r="B26" s="56"/>
       <c r="C26" s="13" t="s">
@@ -3323,14 +3283,14 @@
       <c r="H26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="78"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="59">
         <v>9</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="63" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3343,16 +3303,16 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J27" s="43" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="74"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="74"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
@@ -3361,12 +3321,12 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="77"/>
+      <c r="I28" s="79"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="75"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="10" t="s">
         <v>68</v>
       </c>
@@ -3383,10 +3343,10 @@
       <c r="H29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="78"/>
+      <c r="I29" s="80"/>
       <c r="J29" s="45"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="53">
         <v>10</v>
       </c>
@@ -3403,16 +3363,16 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="76" t="s">
+      <c r="I30" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J30" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="13" t="s">
         <v>45</v>
       </c>
@@ -3423,10 +3383,10 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="77"/>
+      <c r="I31" s="79"/>
       <c r="J31" s="44"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="54"/>
       <c r="B32" s="56"/>
       <c r="C32" s="13" t="s">
@@ -3447,14 +3407,14 @@
       <c r="H32" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="78"/>
+      <c r="I32" s="80"/>
       <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="59">
         <v>11</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="63" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -3467,16 +3427,16 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="76" t="s">
+      <c r="I33" s="78" t="s">
         <v>131</v>
       </c>
       <c r="J33" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="74"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="74"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="10" t="s">
         <v>45</v>
       </c>
@@ -3487,12 +3447,12 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="77"/>
+      <c r="I34" s="79"/>
       <c r="J34" s="44"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="75"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="75"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="10" t="s">
         <v>68</v>
       </c>
@@ -3511,18 +3471,22 @@
       <c r="H35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="78"/>
+      <c r="I35" s="80"/>
       <c r="J35" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
@@ -3539,17 +3503,13 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3557,25 +3517,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>87</v>
       </c>
@@ -3621,11 +3581,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -3643,9 +3603,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="10" t="s">
         <v>89</v>
       </c>
@@ -3665,9 +3625,9 @@
       </c>
       <c r="J4" s="84"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="75"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="75"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="10" t="s">
         <v>92</v>
       </c>
@@ -3691,7 +3651,7 @@
       </c>
       <c r="J5" s="85"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="53">
         <v>2</v>
       </c>
@@ -3713,9 +3673,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="13" t="s">
         <v>89</v>
       </c>
@@ -3735,7 +3695,7 @@
       </c>
       <c r="J7" s="90"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="56"/>
       <c r="C8" s="13" t="s">
@@ -3759,13 +3719,13 @@
       <c r="I8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="59">
         <v>3</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="63" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3783,9 +3743,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="10" t="s">
         <v>89</v>
       </c>
@@ -3807,9 +3767,9 @@
       </c>
       <c r="J10" s="84"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="75"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="10" t="s">
         <v>92</v>
       </c>
@@ -3831,7 +3791,7 @@
       </c>
       <c r="J11" s="85"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -3863,9 +3823,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="10" t="s">
         <v>114</v>
       </c>
@@ -3879,7 +3839,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="84"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
       <c r="B14" s="56"/>
       <c r="C14" s="10"/>
@@ -3891,11 +3851,11 @@
       <c r="I14" s="11"/>
       <c r="J14" s="85"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="59">
         <v>5</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="63" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3913,9 +3873,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="74"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="74"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="10" t="s">
         <v>96</v>
       </c>
@@ -3929,9 +3889,9 @@
       <c r="I16" s="11"/>
       <c r="J16" s="84"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="75"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -3941,7 +3901,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="85"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="53">
         <v>6</v>
       </c>
@@ -3971,9 +3931,9 @@
       </c>
       <c r="J18" s="89"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -3983,7 +3943,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="90"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="56"/>
       <c r="C20" s="13"/>
@@ -3993,25 +3953,19 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="71"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="E23"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="J15:J17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
@@ -4025,6 +3979,12 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="J15:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4032,34 +3992,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -4091,11 +4051,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4112,9 +4072,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="10" t="s">
         <v>81</v>
       </c>
@@ -4127,9 +4087,9 @@
       <c r="H4" s="11"/>
       <c r="I4" s="84"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="75"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="75"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="10" t="s">
         <v>82</v>
       </c>
@@ -4154,18 +4114,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
     <col min="6" max="6" width="22" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
@@ -4194,7 +4154,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4217,7 +4177,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4240,7 +4200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4263,7 +4223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4286,7 +4246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4309,7 +4269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4332,16 +4292,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4440,17 +4400,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4536,12 +4496,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
